--- a/public/aksamı seba1.xlsx
+++ b/public/aksamı seba1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ziyao\Desktop\Coding Projects\wordcardarabıc\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1ACAE8-3612-4992-8421-165F0BD487D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003B7F55-47E5-4B0E-AD57-F31A3042158D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EAF20C8D-FEF0-4659-AB60-52A7DCCFAA9A}"/>
   </bookViews>
   <sheets>
     <sheet name="akasamıseba" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
   <si>
     <t>Salim fiil</t>
   </si>
@@ -1908,48 +1909,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1974,6 +1933,45 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1982,6 +1980,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2299,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F293B19-3620-4831-BC18-C75A4BD1FC17}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,127 +2312,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:7" ht="95.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="27" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="16"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="16"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -2457,209 +2458,209 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="52.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="21" t="s">
+      <c r="G15" s="7" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="52.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="21" t="s">
+      <c r="G16" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="52.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="52.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="21" t="s">
+      <c r="G18" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="52.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="21" t="s">
+      <c r="G19" s="7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="52.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="52.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="52.5" x14ac:dyDescent="1.1000000000000001">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="53.25" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="11" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2680,4 +2681,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE235C9B-1EC8-49EA-8B5B-1B1EC6B5A616}">
+  <dimension ref="B4:B66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="53.25" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B18" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B19" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="53.25" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="B21" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B22" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B23" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B26" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B27" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B28" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B29" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="53.25" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="B30" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B31" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B32" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B33" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B34" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B35" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B36" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B37" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B38" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="53.25" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="B39" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B40" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B41" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B42" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B43" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B44" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B45" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B46" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B47" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="53.25" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="B48" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B49" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B50" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B51" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B52" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B53" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B54" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B55" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B56" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="53.25" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="B57" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B58" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B59" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B60" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B61" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B62" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B63" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B64" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="52.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="B65" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="53.25" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="B66" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>